--- a/files/Matières/Emplois du temps/T/week-end du 21 au 22 11 2020.xlsx
+++ b/files/Matières/Emplois du temps/T/week-end du 21 au 22 11 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry PC\Documents\001 Github prog Sharing\Backup-of-matiere\files\Matières\Emplois du temps\T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58233C9-9AF8-4CCF-B6C7-B6AFF20759B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2791309C-998C-4843-8C03-2AA5E9190956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -83,13 +83,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -409,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -417,76 +423,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -772,803 +805,798 @@
   <dimension ref="C2:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="3:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="5">
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="5">
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
+    </row>
+    <row r="5" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="3">
         <v>0.34375</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="5">
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="5">
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="5">
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
         <v>0.375</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="5">
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="3">
         <v>0.38541666666666702</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="5">
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="5">
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
         <v>0.40625</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="5">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="5">
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
         <v>0.42708333333333298</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C14" s="5">
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
         <v>0.4375</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="5">
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
         <v>0.44791666666666702</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="5">
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
         <v>0.45833333333333298</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C17" s="5">
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
         <v>0.46875</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="5">
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C19" s="5">
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="3">
         <v>0.48958333333333298</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="5">
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
         <v>0.5</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="12" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C21" s="5">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="3">
         <v>0.51041666666666696</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C22" s="5">
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="3">
         <v>0.52083333333333304</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C23" s="5">
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="3">
         <v>0.53125</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-    </row>
-    <row r="24" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="5">
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="3">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C25" s="5">
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="3">
         <v>0.55208333333333304</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C26" s="5">
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="3">
         <v>0.5625</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C27" s="5">
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="3">
         <v>0.57291666666666696</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C28" s="5">
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C29" s="5">
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="3">
         <v>0.59375</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
-    </row>
-    <row r="30" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C30" s="5">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17"/>
-    </row>
-    <row r="31" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C31" s="5">
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="3">
         <v>0.61458333333333304</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="17"/>
-    </row>
-    <row r="32" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C32" s="5">
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="3">
         <v>0.625</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="17"/>
-    </row>
-    <row r="33" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C33" s="5">
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="3">
         <v>0.63541666666666696</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="17"/>
-    </row>
-    <row r="34" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C34" s="5">
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="3">
         <v>0.64583333333333404</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="17"/>
-    </row>
-    <row r="35" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C35" s="5">
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="3">
         <v>0.65625</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="17"/>
-    </row>
-    <row r="36" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="5">
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="17"/>
-    </row>
-    <row r="37" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C37" s="5">
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="3">
         <v>0.67708333333333404</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
-    </row>
-    <row r="38" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C38" s="5">
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="3">
         <v>0.6875</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
-    </row>
-    <row r="39" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="5">
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="3">
         <v>0.69791666666666696</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="17"/>
-    </row>
-    <row r="40" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C40" s="5">
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="3">
         <v>0.70833333333333404</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="17"/>
-    </row>
-    <row r="41" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C41" s="5">
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="3">
         <v>0.71875</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="17"/>
-    </row>
-    <row r="42" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C42" s="5">
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="17"/>
-    </row>
-    <row r="43" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C43" s="5">
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="3">
         <v>0.73958333333333404</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="17"/>
-    </row>
-    <row r="44" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C44" s="5">
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="3">
         <v>0.75</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="17"/>
-    </row>
-    <row r="45" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C45" s="5">
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="3">
         <v>0.76041666666666696</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="17"/>
-    </row>
-    <row r="46" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C46" s="5">
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="3">
         <v>0.77083333333333404</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="17"/>
-    </row>
-    <row r="47" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="5">
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="3">
         <v>0.78125</v>
       </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="17"/>
-    </row>
-    <row r="48" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C48" s="5">
+      <c r="D47" s="16"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="3">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="17"/>
-    </row>
-    <row r="49" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C49" s="5">
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="3">
         <v>0.80208333333333404</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="17"/>
-    </row>
-    <row r="50" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C50" s="5">
+      <c r="D49" s="7"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="3">
         <v>0.812500000000001</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="17"/>
-    </row>
-    <row r="51" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C51" s="5">
+      <c r="D50" s="7"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="3">
         <v>0.82291666666666696</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="17"/>
-    </row>
-    <row r="52" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C52" s="5">
+      <c r="D51" s="7"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="3">
         <v>0.83333333333333404</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="17"/>
-    </row>
-    <row r="53" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C53" s="5">
+      <c r="D52" s="7"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="3">
         <v>0.843750000000001</v>
       </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="17"/>
-    </row>
-    <row r="54" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C54" s="5">
+      <c r="D53" s="7"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="3">
         <v>0.85416666666666696</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="17"/>
-    </row>
-    <row r="55" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C55" s="5">
+      <c r="D54" s="7"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="3">
         <v>0.86458333333333404</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="17"/>
-    </row>
-    <row r="56" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C56" s="5">
+      <c r="D55" s="7"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="3">
         <v>0.875000000000001</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="17"/>
-    </row>
-    <row r="57" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C57" s="5">
+      <c r="D56" s="7"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="3">
         <v>0.88541666666666696</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="17"/>
-    </row>
-    <row r="58" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C58" s="5">
+      <c r="D57" s="7"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="3">
         <v>0.89583333333333404</v>
       </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="17"/>
-    </row>
-    <row r="59" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C59" s="5">
+      <c r="D58" s="7"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="3">
         <v>0.906250000000001</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="17"/>
-    </row>
-    <row r="60" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C60" s="22">
+      <c r="D59" s="7"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="8">
         <v>0.91666666666666696</v>
       </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="25"/>
-    </row>
-    <row r="61" spans="3:11" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="3:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D29:G33"/>
-    <mergeCell ref="D34:G38"/>
-    <mergeCell ref="D39:G43"/>
-    <mergeCell ref="D44:G48"/>
-    <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="D4:G5"/>
     <mergeCell ref="H4:K5"/>
@@ -1577,6 +1605,11 @@
     <mergeCell ref="D6:G10"/>
     <mergeCell ref="D11:G15"/>
     <mergeCell ref="D16:G19"/>
+    <mergeCell ref="D29:G33"/>
+    <mergeCell ref="D34:G38"/>
+    <mergeCell ref="D39:G43"/>
+    <mergeCell ref="D44:G48"/>
+    <mergeCell ref="D3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/files/Matières/Emplois du temps/T/week-end du 21 au 22 11 2020.xlsx
+++ b/files/Matières/Emplois du temps/T/week-end du 21 au 22 11 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry PC\Documents\001 Github prog Sharing\Backup-of-matiere\files\Matières\Emplois du temps\T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2791309C-998C-4843-8C03-2AA5E9190956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC885E2A-549E-451E-AA7A-5D33307A2C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,12 +932,12 @@
       <c r="C11" s="3">
         <v>0.40625</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -947,10 +947,10 @@
       <c r="C12" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -960,10 +960,10 @@
       <c r="C13" s="3">
         <v>0.42708333333333298</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -973,10 +973,10 @@
       <c r="C14" s="3">
         <v>0.4375</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -986,10 +986,10 @@
       <c r="C15" s="3">
         <v>0.44791666666666702</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
